--- a/backend/Final_Prepped_Data.xlsx
+++ b/backend/Final_Prepped_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
   <si>
     <t>Heading</t>
   </si>
@@ -28,6 +28,9 @@
     <t>URL</t>
   </si>
   <si>
+    <t>Cat</t>
+  </si>
+  <si>
     <t>Israel military ‘ready, awaiting instruction’ on Gaza as 2 more hostages freed</t>
   </si>
   <si>
@@ -454,6 +457,36 @@
   </si>
   <si>
     <t>https://www.indiatvnews.com/entertainment/news/raj-kundras-old-letter-to-nhrc-surfaces-says-humans-are-treated-worse-than-pigs-in-arthur-road-jail-2023-10-24-899358</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Judiciary</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Business</t>
   </si>
 </sst>
 </file>
@@ -824,13 +857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,565 +876,688 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="E41" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/backend/Final_Prepped_Data.xlsx
+++ b/backend/Final_Prepped_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="214">
   <si>
     <t>Heading</t>
   </si>
@@ -92,83 +92,139 @@
   </si>
   <si>
     <t xml:space="preserve">
-      'Get it investigated by NIA': Chhattisgarh CM Baghel responds to BJP's demand for probe into worker's killing    </t>
+      Deepotsav: Ayodhya to create world record with 24 lakh diyas at 51 ghats, UP govt starts online diya booking    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Israel-Hamas war: Owaisi urges PM Modi to make effort to establish humanitarian corridor in Gaza    </t>
+      Rajasthan poll: Former Congress MLA Ashok Tanwar, others leaders join BJP in Jaipur    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Sri Lanka approves visa-free entry for visitors from India, China, Russia and four other countries    </t>
+Live nowENG vs PAK World Cup 2023 Live: England look to pile loads of runs on Pakistan    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Dussehra 2023: Katrina Kaif to Anupam Kher, celebs extend special wishes to fans    </t>
+      'Dhai kilo ka purse kyu...': Palak Tiwari gets brutally trolled for ignoring beggar | Watch video    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      SA vs BAN, World Cup 2023: Mumbai weather forecast, probable XIs, live telecast - all you need to know    </t>
+      ENG vs PAK: Have Pakistan knocked out from World Cup 2023 at toss itself? Can they qualify while chasing too?    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Former BJP MP Nilesh Rane announces retirement from active politics    </t>
+      OPINION | LALU, TEJASHWI MUST THINK, HOW LONG WILL THEY ALLOW NITISH TO CONTINUE AS CM    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      WhatsApp channels set to get voice messages and stickers: Here's what to know    </t>
+      'If there is a hell on earth today...,' says UN as Israeli airstrikes leave 20 of 36 hospitals dysfunctional    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Rajnath Singh visits Tawang in Arunachal Pradesh, observes Chinese PLA posts | WATCH    </t>
+      Chandra Mohan, veteran Telugu actor, dies at the age of 82 due to cardiac arrest; Jr NTR mourns demise    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      'I don't see any attitude from team' - Babar Azam wants his teammates to be proactive after three WC defeats    </t>
+      World Cup: South Africa face Temba Bavuma's injury concern ahead of SA vs AUS semifinal    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Five of family die after their car fell off bridge at Sikatiya barrage in Jharkhand's Deoghar    </t>
+      Jaishankar embarks on five-day visit to UK ahead of PM Rishi Sunak's visit to India     </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Deva first look: Shahid Kapoor looks fierce in first poster, film to release next Dussehra    </t>
+      Bangalore Metro Rail to introduce mobile QR tickets    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      DU Placement and Internship 2023 Drive to be conducted on October 26, details here    </t>
+      BSE Q2 net profit jumps to Rs 118 crore, revenue at record Rs 367 crore    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Gujarat: Madrasa teacher in Junagadh arrested for sodomising minor students    </t>
+      MS Dhoni signs fan’s BMW, talks in native accent in hometown Ranchi, video goes viral    </t>
   </si>
   <si>
     <t xml:space="preserve">
-       Kerala: CPO found hanging, second suicide incident in police department in month    </t>
+      Flipkart's 'Big Diwali Sale' ends today: Check exclusive discounts on premium gaming smartphones    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      World Cup 2023: Australia optimistic about Travis Head's availability for Netherlands game    </t>
+      Karnataka rains: Parts of state to receive heavy showers today     </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Ajay Goel quits as Byju’s CFO, rejoins Vedanta    </t>
+      'No justification for bombing babies, ladies and old people in Gaza in the war against Hamas': Macron     </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Madhya Pradesh Assembly Elections | Ummeedwar wahi, par party nayi: Arch rivals switch sides in Badnawar    </t>
+      Delhi High Court orders no vending, hawking zones in Connaught Place    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Chinese Foreign Minister Wang Yi to visit US in a bid to cool down tensions between world's largest economies     </t>
+      Check Garena Free Fire Max redeem codes for Nov 11: Weapons, diamonds, and more    </t>
   </si>
   <si>
     <t xml:space="preserve">
-      Avoid these 5 food combinations at any cost    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-      Raj Kundra's old letter to NHRC surfaces, says 'humans are treated worse than pigs' in Arthur Road Jail    </t>
+      ENG vs PAK: How can England qualify for Champions Trophy even if they lose to Pakistan in World Cup 2023    </t>
+  </si>
+  <si>
+    <t>Nation bigger than 200-cr Ummah. Muslims don’t get it and that makes them powerless</t>
+  </si>
+  <si>
+    <t>Bihar BJP is toeing Nitish Kumar’s line on caste now. It’s a win for JDU-RJD before elections</t>
+  </si>
+  <si>
+    <t>Pawdicures, spa, Gucci goodies — celeb felines &amp; dogs are having their moment this Diwali</t>
+  </si>
+  <si>
+    <t>India has gone into data discomfort. Explains silence on Bihar caste inequality</t>
+  </si>
+  <si>
+    <t>12 people die in Haryana due to spurious liquor consumption</t>
+  </si>
+  <si>
+    <t>Iranian president to travel to Saudi Arabia to attend OIC Summit on Gaza</t>
+  </si>
+  <si>
+    <t>‘On average, a child is killed every 10 minutes in Gaza’: WHO Chief to UN Security Council</t>
+  </si>
+  <si>
+    <t>Canada investigates online warnings against Air India passengers travelling on 19 November</t>
+  </si>
+  <si>
+    <t>Diwali burns are preventable, but be prepared. Here’s a guide to first aid and after-care</t>
+  </si>
+  <si>
+    <t>Corporate India might be getting top heavy, but it is smaller firms that are fetching higher returns</t>
+  </si>
+  <si>
+    <t>Indians have a toxic relationship with overwork culture. They are taught ‘work is worship’</t>
+  </si>
+  <si>
+    <t>BJP names Yediyurappa’s son Vijayendra as Karnataka party chief</t>
+  </si>
+  <si>
+    <t>Assam Congress MLA, arrested for remarks on temple priests, gets bail. Asked to apologise by party</t>
+  </si>
+  <si>
+    <t>KCR banks on his age-old strategy to take on resurgent Congress in Telangana — the statehood sentiment</t>
+  </si>
+  <si>
+    <t>‘Stupid of me to make him CM’ — Nitish launches into tirade against Manjhi in Bihar Assembly</t>
+  </si>
+  <si>
+    <t>SC ruling on Punjab Governor’s role sets House in order. Kerala and Tamil Nadu must take cue</t>
+  </si>
+  <si>
+    <t>In IIT vs BHU war, idea of a wall rises. Will it stop sexual attacks on women?</t>
+  </si>
+  <si>
+    <t>2+2 dialogue: India &amp; US to deepen defence cooperation. MQ9B drones, Stryker discussed</t>
+  </si>
+  <si>
+    <t>On dead patient’s plea, HC asks Centre for ‘best option’ to make affordable breast cancer meds available</t>
+  </si>
+  <si>
+    <t>States spending better, with many prioritising capex. But those dependent on Centre may face stress</t>
   </si>
   <si>
     <t>israels military spokesperson daniel hagari tuesday say military ready determine next stage war await political instructionhe say israel learn us experience middle east war border not thousand mile israel add expect week fight aheadhama monday announce release two israeli hostage hold captive gaza strip humanitarian reason also release video show terrorist give food water old women release captivity israeli chief staff lieutenant general herzi halevi issue statement suggest israel intention curb strike densely populate gaza strip hint well prepared ground assaultwe want bring hamas state full dismantle halevi say path path unrelenting attack damage hamas everywhere every wayclick get live update israelhamas waradvertisementhere late development israelhamas conflict israelhamas war enter day tuesday death toll gaza two week air strike exceed palestinian health ministry report total death toll far stand say israel learn us experience middle east war border not thousand mile israel add expect week fight aheadhama monday announce release two israeli hostage hold captive gaza strip humanitarian reason also release video show terrorist give food water old women release captivity israeli chief staff lieutenant general herzi halevi issue statement suggest israel intention curb strike densely populate gaza strip hint well prepared ground assaultwe want bring hamas state full dismantle halevi say path path unrelenting attack damage hamas everywhere every wayclick get live update israelhamas waradvertisementhere late development israelhamas conflict israelhamas war enter day tuesday death toll gaza two week air strike exceed palestinian health ministry report total death toll far stand israeli chief staff lieutenant general herzi halevi issue statement suggest israel intention curb strike densely populate gaza strip hint well prepared ground assaultwe want bring hamas state full dismantle halevi say path path unrelenting attack damage hamas everywhere every wayclick get live update israelhamas waradvertisementhere late development israelhamas conflict israelhamas war enter day tuesday death toll gaza two week air strike exceed palestinian health ministry report total death toll far stand want bring hamas state full dismantle halevi say path path unrelenting attack damage hamas everywhere every wayclick get live update israelhamas waradvertisementhere late development israelhamas conflict israelhamas war enter day tuesday death toll gaza two week air strike exceed palestinian health ministry report total death toll far stand click get live update israelhamas warhere late development israelhamas conflict israelhamas war enter day tuesday death toll gaza two week air strike exceed palestinian health ministry report total death toll far stand</t>
@@ -231,64 +287,121 @@
     <t>think dog allow visit puja pandal well one debatable question give kind headline read every day rampant dog attack however dog lover video could special significance firstly absolutely adorable clip secondly video pose important question people irrespective fact whether love dog not show two pet dog oscar karma visit durga puja pandal bengaluru seek goddess durgas blessingsthe video share instagram account dedicate pet dog see dress durga puja pandal priest first apply tika even feed prasad pet parent share video ask think dog allow notwatch video video trigger numerous reaction dog owner not stupid not everyone agree idea take dog anywhere like user wrotewhy feel whatever mean human mean dog dog lover stretch far many devotee could serious dogphobia childhood trauma bit stray dog eat dog food get treat vet give love take care not make thing not even understand another user saidsee reaction thought tell comment section</t>
   </si>
   <si>
-    <t>chhattisgarh chief minister bhupesh baghel address recent killing bjp worker naxalaffected district mohlamanpurambagarh chowki response bharatiya janata partys bjp request national investigation agency nia probe baghel state opposition could pursue nia investigation dissatisfied state police investigation incident involve shooting bjp worker birju taram suspect naxalite village sarkheda aundhi police station area night october bjp label target killingwhen question bjps claim baghel remind previously suggest involve nia investigation case feel bjp worker target kill baghel state feel incident mohlamanpur targeted killing get investigate nia stop way ed roam nia also come stop nia investigation base fact whether probe government state police nia truth must come outin meantime bjp state unit chief arun sao visit tarams house sarkheda allege incident not targeted killing also political murder intention seize power sao emphasise importance eliminate violence democracy promise bjps commitment secure justice taram familyhe far criticise congress government claim fearful public backlash due anticipate defeat upcoming assembly poll fear contribute killing bjp workersadvertisement</t>
-  </si>
-  <si>
-    <t>asaduddin owaisi president aimim call upon prime minister narendra modi take immediate action facilitate establishment humanitarian corridor gaza corridor would serve lifeline people gaza provide muchneede relief ceasefire ongoing conflict owaisis plea come address public gathering aimim headquarters denounce report atrocity commit israel palestineappeal amidst ongoing gaza conflictthe conflict israel palestine escalate palestinian militant group hamas initiate barrage rocket attack southern israel october response israel defense force carry retaliatory strikesurgent need humanitarian assistanceexpressing concern dire situation gaza owaisi emphasise critical need ceasefire establishment humanitarian corridor cite shortage essential supply like electricity oxygen medical equipment gaza highlight approximately pregnant woman among urgent need assistancestrong condemnation gaza situationowaisi not mince word characterise israel action gaza genocide call upon prime minister modi leverage role head g broker ceasefire open humanitarian corridor ultimately save life provide relief palestinian peopleresolution pass support palestineadvertisement protest meeting several resolution pass solidarity palestinian people resolution include condemn attempt indian state government discourage criminalise protest israeli action gaza furthermore express support palestinian struggle end occupation landscall adherence international law advertisement one resolution stress importance israel adhere international law un resolution oslo accord urge israel end occupation gaza strip west bank jerusalem territory occupy since resolution emphasise necessity allow formation free sovereign palestinian stateindia legacy support palestine</t>
-  </si>
-  <si>
-    <t>major development sri lanka approve issue free visa india china russia malaysia japan indonesia thailand immediate effect pilot project till march per sri lankan medium report late decision take order give boost tourism industry expect increase tourist arrival five million come year ministry say quote sri lankan medium last week ministry tourism announce cabinet paper present previous cabinet meeting propose issue free tourist visa foreigner five country intend visit sri lanka tourist daily mirror online reportedadvertisement notably sri lanka island nation majorly dependent tourism sector industry consider significant contributor countrys gdp however ruin backtoback tragedy occur due covid pandemic bad implementation agricultural reform fact lead country plunge crisis</t>
-  </si>
-  <si>
-    <t>auspicious occasion vijayadashami aka dussehra bollywood celebrity include katrina kaif alia bhatt siddharth malhotra among many extend special wish social medium fan anupam kher instagram account share motion poster lord rama write good wish auspicious dussehra happydussehra raazi star alia bhatt take instagram story wish fan occasion write wish happy dussehraimage source instagram alia bhatts late instagram story anil kapoor recently delete instagram post come back mr india avatar commercial also send heartfelt wish fan instagram happy dussehra joyous occasion dussehra may good always triumph evil life write instagram story image source instagram anil kapoor late instagram storiessuniel shetty extended warm wish write may light victory shine bring abundance joy prosperity strength overcome life challenge wish everyone happy dussehraadvertisement image source instagram suniel shettys late instagram storiesalso read liar chandrachud singh downplay salman khan big claim koffee karan read detail advertisement occasion dussehra siddharth malhotra tweet dussehra remind evil never extinguish light truth happy dussehraveteran actress neetu singh extend heartfelt wish write may lord rama bless strength courage follow path virtue righteousness good wish joyous vijayadashmiimage source instagram neetu singh late instagram story</t>
-  </si>
-  <si>
-    <t>south africa aim keep win momentum go ahead three big game line take bangladesh tuesday october mumbai south africa overcome heat extreme condition pummel england defend champion opt bowl seem like grave mistake england part give margin loss heavy three lion odi history south africa bangladesh would want bat first win toss latter especially campaign line one loss stand eliminatedmumbai weather forecastit go yet another hot sultry day wankhede stadium mumbai zero per cent chance rain tuesday october first match tournament venue see player sweat cramp get fatigued extreme weather condition might similar yet tuesday jos buttler make blunder choose bowl first day ago defeat margin big likely either captain win toss opt bat not save player get tired heat together also put pressure opposition post big total temperature set hover around high degree low degreesprobable playing xisadvertisement south africa temba bavuma c quinton de kock wk rassie van der dussen aiden markram heinrich klaasen david miller marco jansen kagiso rabada keshav maharaj gerald coetzee lungi ngidi</t>
-  </si>
-  <si>
-    <t>former member parliament represent ratnagirisindhudurg constituency bjp leader nilesh rane declare retirement active politic tuesday share decision via official social medium account x express permanently step away active politic without cite specific reasonin social medium post rane make explicitly clear lose interest participate political election also extend apology anyone may unintentionally offend action statement rane post state long interested contest election etc critic criticize prefer not invest time heart not apologize unintended offense cause individualsnilesh rane express gratitude bjpadvertisement nilesh rane recently announce retirement active politic take moment express deep appreciation bjp dedicated supporter stand nearly two decade heartfelt message post social medium account rane thank shower love support yearlong political journey express immense gratitude unwavering commitment even circumstance challenge</t>
-  </si>
-  <si>
-    <t>whatsapp widely use instant messaging platform recently introduce channel feature india offer oneway broadcast mechanism private update individual organisation report reveal metaowne app actively develop additional functionality channel admin include ability share voice message sticker within channelsaccorde report wabetainfo whatsapp aim enhance interaction channel admin follower late whatsapp beta android update available google play store unveil plan incorporate voice message sticker channel near futurealso read amazon introduce face fingerprint pin signin enhanced securityat present channel whatsapp primarily support sharing text message photo video gif introduction voice message sticker expand range communication option make interaction dynamic expressive addition expect boost well engagement channel followersadvertisement furthermore inclusion voice message sticker improve communication efficiency share update thereby enhance appeal channel development aid channel admin reach wide audience make channel engaging less staticalso read vivo v review midrange smartphone premium feature advertisement</t>
-  </si>
-  <si>
-    <t>tawang defence minister rajnath singh visit arunachal pradesh celebrate occasion dussehra jawans tuesday october reach forward post observe chinese pla post side border bum la state incredible india gate indian side chinese border personnel meet facility blueroofe hut chinese side see bum la arunachal pradeshrajnath embark twoday visit assam arunachal start monday accompany indian army chief general manoj pande visit defence minister brief army personnel defence establishment indiachina border bum la celebration dussehra soldier strategically important location close line actual control lac come time india china engage standoff certain friction point eastern ladakh three yearsthe minister lay wreath tawang war memorial arunachal pay tribute braveheart brief tawang war memorial also pay tribute war hero subedar joginder singh memorial bum lahe also perform shashtra puja tawang occasion vijaya dashami rajnath perform shastra puja dussehra last several year include tenure home minister previous nda governmentthe defence minister extend greeting vijaya dashmi jawans say want among brave soldier country pious occasioni come four year ago want among brave jawan vijayadashami extend heartiest greeting occasion among saidhe laud jawans stand tough situation security country say countryman proud themthe tough situation shoulder responsibility guard country border appreciate less would like tell countryman proud know importance uniform saidadvertisement defence minister credit jawans keep country secure play part raise stature india world advertisement keep border secure india stature world rise rapidly develop country accept reality past year indias stature rise would like clearly say leadership pm modi india stature rise india make economic development indeed important not keep countrys border secure stature would not possible rajnath saidhe hail manufacturing weapon country make india say export increase last nine yearsearli use import weapon country world use import almost weapon export worth rs crore happy know today export equipment worth rs crore today weapon make indian soil make hand indians make india saidthe defence minister interact jawan visit post see personally approach jawan talk themearlier year union minister visit tawang sector review security preparedness sectorthe tawang sector dispute area give chinese army multiple time try intrude sector</t>
-  </si>
-  <si>
-    <t>pakistan captain babar azam highlight team struggle shocking defeat afghanistan crucial world cup game monday october pakistan fail defend run neighbour chennai lead third consecutive defeat tournamentafghanistan pull another major upset stun cricket world chase tough total chepauks slow wicket pakistan bowler poor outing continue manage pick two wicket far stretch due another belowaverage fieldingpakistan seem control put plus target chepauks bowlingfriendly surface never suffer world cup defeat defend total bowler clearly not mark never look threaten opponent chase babar slam bowler not pick wicket middle achieve desirable total battingadvertisement yes defeat hurt lot babar say loss afghanistan want put total around achieve not mark bowling field spinner not bowl way want middle</t>
-  </si>
-  <si>
-    <t>five people family die car fall bridge sikatiya barrage jharkhands deoghar say official tuesday accident take place vehicle cross siktia barrage addedthe accident happen family member engineer profession start drive vehicle take selfie lose control suv police saidadvertisement</t>
-  </si>
-  <si>
-    <t>discussion go long time next film bollywood superstar shahid kapoor occasion dussehra actor make announcement next film kabir singh actor share screen space pooja hegde first time roshan andrrew next title deva film release next dussehra shahid take social medium account share picture actor see wear white shirt brown pant kapoor also hold gun hand short hair hard not notice deva theatre dussehra th october shahid write caption checkout shahid post hereadvertisement lead lady deva also share picture instagram maker film see hold muhurat short board brace fearless deva release cinema dussehra hegde write caption</t>
-  </si>
-  <si>
-    <t>du placement internship drive university delhi start placementcuminternship drive october drive host central placement cell cpc dean student welfare du information regard drive share universitys social medium platform x formerly know twitter delhi university invite bonafide regular student study course undergraduate postgraduate program placement internship program interested candidate submit application online official website central placement cell</t>
-  </si>
-  <si>
-    <t>junagadh yearold madrasa teacher maulana junagadh district gujarat arrest allegedly sodomise least minor student police say besides maulana yearold trustee madrasa also arrest allegedly not take action student complaint teacher statement junagadh police say monday october teacher nab hideout surat madrasa trustee also manage escape catch place junagadh sunday say statementbase complaint give yearold boy mangrol police register fir sunday two accuse indian penal code section unnatural intercourse assault criminal intimidation relevant provision protection child sexual offence pocso actthe incident come fore one student residential school situate mangrolveraval bypass dial mother use mobile phone another teacher complain maulanas sexual act student police statement saidfollowe information boy woman approach police register complaint madrasa teacher allegedly involve sodomise student reside study school addedthe police reach madrasa premise october take student confidence help muslim leadersadvertisement boy study madrasa allege sodomise maulana also threaten kill student complaint parent regard incident</t>
-  </si>
-  <si>
-    <t>senior civil police officer cpo allegedly die suicide kozhikode say kerala police official say tuesday civil police officer low rank kerala police police departement order investigation second allege suicide incident report within state police department monthearlier driver kerala police die suicide residence muvattupuzha ernakulam district october deceased leave behind note allege mental torture superior officer suicide note suggest illtreatment senior prompt take extreme stepadvertisement kozhikode incident relative cpo allege officer take extreme step monday follow workrelated pressure superior</t>
-  </si>
-  <si>
-    <t>australia look continue impressive comeback world cup take lowranke netherlands delhis arun jaitley stadium wednesday october australia far boost travis head return training optimistic player availability upcoming gamethe fivetime champion disastrous start tournament heavy defeat south africa india pat cumminsside record impressive win next two game dominant result sri lanka pakistan head yearold opener suffer lefthand injury australias tour south africa last month miss team open four game australia clearly struggle batting absence head definitely cherish return head spot bat full intensity team training session delhi monday seem good shape potential world cup debut netherlands gameadvertisement team coach andrew mcdonald also confirm player impressive recovery hand injury say management optimistic availability ahead crucial game australia</t>
-  </si>
-  <si>
-    <t>new delhi finance professional ajay goel quit byju return vedanta ltd new chief financial officer anil agarwalcontrolle mining conglomerate head ambitious business restructuring goel quit vedanta early year join education startup byju replace sonal shrivastava resign post month join vedanta say stock exchange filing goel appoint cfo company effect october part vedanta structure rehire programme call gharwapsi mr ajay goel join back company saidvedanta say shrivastava resign cfo effect close business hour october due personal reasonsgoel national rank holder charter accountant company secretary come rich experience global multinational company general electric nestle coca cola diageo usl various leadership role saidgoel early associate vedanta acting cfo company october april early role vedanta ajay contribute significantly term drive business performance manage financial affair company head finance function leadership acuman also instrumental successfully handle regulatory approval investment matter capital allocation investor relation major marelated affair vedanta saidadvertisement byju say make new appointment finance function pradip kanakia senior adviser nitin golani currently presidentfinance take charge india cfovedanta last month announce plan split six list company improve valuation attract investor advertisement demerge business unit believe unlock value potential fast growth vertical come large umbrella natural resource market demand supply trend potential deploy technology raise productivity agarwal chairman vedanta say time</t>
-  </si>
-  <si>
-    <t>political battleground madhya pradeshs badnawar assembly constituency nestle within dhar district set witness highstake duel two formidable archrival swap party allegiance face third consecutive timelocal abuzz catchy phrase ummeedwar wahi par party nayi signify persistence candidate new partythe crux contest revolve around bjp leader state industrial policy investment promotion minister rajvardhan singh dattigaon pit congress candidate bhanwar singh shekhawat candidate hail rajput community lock horn upcoming state assembly poll schedule november apart rajput community tribal patidar voter also wield considerable influence shape electoral outcome constituency boast nearly lakh votersrajvardhan singh dattigaon know proximity union minister jyotiraditya scindia one rebel mla defect congress resign assembly post join bjp follow scindia switch saffron party defection lead fall kamal nath government propel bjp back power state leadership shivraj singh chouhanon flip side bhanwar singh shekhawat recently exit bjp september find new home opposition congress congress candidate challenge bjps rajvardhan singh dattigaon badnawaradvertisement dattigaon share perspective say shekhawat originally indore campaign badnawar area conspicuously absent massive covid outbreak not extend regard local people departure congress could not even find suitable local candidate contest badnawar shed light state affair grand old partyin assembly election shekhawat secure badnawar seat bjp candidate defeat congress candidate dattigaon vote however assembly poll dattigaon turn table triumph shekhawat substantial margin vote advertisement</t>
-  </si>
-  <si>
-    <t>yet another attempt cool tension china united states chinese foreign minister wang yi set visit america thursday would first visit washington assume ministry follow mysterious disappearance predecessor li shangfu accord chinese official stay three day meet american counterpart antony blinken make attempt minimise poisoning relation two head state president xi jinping us counterpart joe biden blinken host chinese counterpart washington october state department say press release mondaythe two discuss range bilateral regional global issue part ongoing effort manage uschina relationship responsibly maintain open channel communication state department saidadvertisement worth mention relation washington beijing become increasingly fraught lately two nation lock escalate trade spat since early raise import tariff good</t>
-  </si>
-  <si>
-    <t>nutrient mixture prove extremely beneficial body vitamin nutrient include calcium iron vitamin c food combination not discomfort body also increase health problem nutritionist suggest mix food healthy option not necessary always healthy include variety food item diet help prevent nutritional deficiency time food mix cause harm instead benefit example always hear curd not eat milk similarly food combination avoid learn food combination herewhat kind food combination avoidedwe often eat fruit add sweet taste food whereas nutritionist suggest fruit not consume food eat together may cause digestive problem fruit eat separately breakfast apart also keep mind sufficient time gap food fruitsconsume cheese fatty meat saturated meat significantly increase saturate fat sodium level increase risk heart disease also affect overall health balance diet choose lean meat eat lowfat cheeseadvertisement citrus fruit like orange contain acid mixed milk acid curdle milk digestive problem therefore avoid consume together keep sufficient time gap</t>
-  </si>
-  <si>
-    <t>raj kundram britishindia businessman husband bollywood diva shilpa shetty news last couple year several reason recently make headline upcoming biopic also mark acting debut old letter raj come light address national human rights commission nhrc letter date november raj pen experience make serious allegation mumbais arthur road jailthe letter also cce prime minister india narendra modi maharashtra cm uddhav thackeray mention displeasure stay arthur road jail barrack judicial custody term environment inside jail slow poison human treat bad pig everyone permit smoke barrack cause nonsmoker smoke passively ultiple burn injury happen unstubbed bidi cigarette barrack floor barrack capacity mention building yet people make occupy fortunate get small area side sleep much negotiation get rest otherwise newcomer make sleep side squash middle barrack not even space person move inch write letter advertisement also read liar chandrachud singh downplay salman khan big claim koffee karan read detail</t>
+    <t>ayodhya deepotsav city ayodhya set hold grand deepotsav today november eve diwali lakh diyas ghat set illuminate large number part celebration shri ram janmabhoomi path also decorate different type flower deepotsav deck heavily around lakh earthen lamp uttar pradesh government also plan create guinness world record people different place include tribal people pakur district jharkhand witness grand deepotsavat pm chief minister yogi adityanath reach ayodhya today high commissioner ambassador country participate event deputy cm keshav prasad maurya brajesh pathak attend event tableau lord ram reach ram katha park around pm pm cm yogi adityanath perform saryu aarti inaugurate festival light ram ki paidi pmaround tribal people pakur district jharkhand arrive ayodhya celebrate deepotsav saturday people tribe reside mountainous region come ayodhya barefoote attend grand deepotsavimage source pti fileearthen lamp arrange pattern seventh deepotsav celebration ram ki pouri ayodhyathe jharkhand pradesh shri ram janaki charitable service trust send participate deep utsav ayodhya citytomorrow november light lamp presence uttar pradesh chief minister yogi adityanath traditional attire people pakur district come ayodhya first time early people santhali community come witness diwali ayodhya people part deepotsav ayodhya pay sum low r diya rs diyas difference diya illuminate designate place pick click mouse virtual space develop ayodhya development authority purposethe dedicated portal play edeepotsav set people want take part mega event faroff place portal also offer live feed event unfold ayodhya uttar pradesh occasion deepotsav special online programme prepare connect worshipper lord rama india abroad deepotsav say rp yadav deputy director tourism departmentadvertisement idea let people buy elamp book package edeepotsav feel connect noble event say advertisement one buy lamp r lamp rs r rs make booking able click light lamp home ram ki paidi saryu ghat mutt temple religious place along prize like lamp cardamom seed laddu prasad model ram temple souvenir ramnami gamcha ram darwar etc send courier per package addeddevotee part edeepotsav log holy ayodhya portal httpsholyayodhyacomworld record ayodhya yogi adityanath government raise bar light lakh earthen diyas november last year record create light lakh diyas time ensure new record could achieve time earthen lamp go spread ghat ram ki paidia government spokesperson say total lakh diyas go put volunteer lakh expect light time create recordabout volunteer go deploy job majority student dr ram manohar lohia avadh university identity card bus service provide ferry student lohia college sitea footwide block house diyas formation volunteer start work site thursday noon onwards local municipal corporation assist cleaning sweeping ghat diyas line upthe volunteer ask pour ml mustard oil diyas november event circulation space create within grid facilitate movement volunteer would provide cotton wick oil final day</t>
+  </si>
+  <si>
+    <t>rajasthan assembly elections congress suffer major setback ahead assembly election several leader grand old pary include party stalwart former minister ram gopal bairwa former mla ashok tanwar saturday join bharatiya janata party bjp jaipurthe congress leader join bjp presence mp rajyavardhan singh rathore state party president cp joshi welcome new leader party fold joshi say seem make jhotwara congressmukt express gratitude repose faith bjp leadership prime minister narendra modithe former haryana congress chief tanwar quit congress consistently switch party february even establish party apna bharat morcha later join trinamool congress tmc november know close associate former congress chief rahul gandhi gandhis tenure head indian national youth congress inyc tanwar hold position chief inychowever tanwar prolong turf war former haryana chief minister bhupinder singh hooda quit congress october ahead state assembly pollsadvertisement haryana assembly election tanwar extend support dushyant chautala jannayak janata party jjp campaign congress win lok sabha election sirsa haryana congress candidate however lose lok sabha electionsearli senior leader jodhpur mayor rameshwar dadhich file nomination upcoming state poll soorsagar constituency independent candidate withdraw paper join bjp advertisement notably dadhich close associate rajasthan chief minister ashok part way congress yearlong associationvinod sharma former dausa district president congress also join bharatiya janata party bjp additionally jaipur former minister rajpal singh shekhawat submit nomination jhotwara constituency bjps rajyavardhan singh rathore decide withdraw candidacy discussion partys high command</t>
+  </si>
+  <si>
+    <t>eng vs pak world cup live pakistan england go match number world cup babar azamle side face improbable task reach semifinal tournament england look push case champion trophy new zealand make thing bad pakistan man green require mammoth win pip kiwi th spot point table follow late update eng vs pak clashadvertisement late cricket newsthe first four first innings pakistan wicketless england fine start run kitty alreadythe proceeding underway england opener middle shaheen new nut hand</t>
+  </si>
+  <si>
+    <t>palak tiwari daughter popular tv actress shweta tiwari often remain news allege relationship ibrahim ali khan become target troll video bijlee bijlee girl round internet following become target troll video see come shop mumbai lady beggar wear burqa come close ask money palak reply become main attraction viral video palak hear say cash nahi hai mere pass not cash sorry walk away watch viral video video palak see wear white kurti handbag shoulderadvertisement soon video go viral internet netizen begin troll comment section reaction way hilarious one user write spare crore rupee never help poor another one write thank god aunty not reply say koi ni beta upi kar third user comment dhai kilo ka purse kyu fourth netizen write purse lipstick hoga advertisement</t>
+  </si>
+  <si>
+    <t>eng vs pak england pakistan go th match world cup babar azams man face improbable task overtake new zealand net run rate pip top four place tournament man green lose toss ask bowl firstbefore game criterion qualification suit pakistan little well bat first pakistan need run win go past new zealand nrr need score minimum ask nearimpossible task new zealand rank fourth world cup point table nrr pakistan fifth nrr pakistan officially still contention qualify semifinal toss already improbable seem task even steep champion still qualify chase not seem practical england bat firstengland total pakistan chase within oversengland total pakistan chase within oversengland total pakistan chase within oversengland total pakistan chase within oversengland total pakistan chase within oversadvertisement england total pakistan chase within overshowever pakistan bat first would slightly well chance pip new zealand scenario pakistan would bat first advertisement pakistan would bat firstpakistan total restrict england runspakistan total restrict england runspakistan total restrict england runspakistan total restrict england run</t>
+  </si>
+  <si>
+    <t>bihar chief minister nitish kumar land fresh controversy use undignified language predecessor jitan ram manjhi inside assembly two day ago nitish insult woman bihar assembly indulge graphic description sexual intercourse thursday house discuss bill raise reservation cap per cent job education yearold manjhi question caste survey datum relate mahadalit community manjhi belong extremely backward musahar caste bihar enraged nitish kumar stand take exception speaker allow manjhi participate debate nitish say isko koi sense hai make cm man sense idea stupidity make cmpointing towards bjp bench nitish kumar go want become governor make governor family member also not care community member also upset early congress good nothing nearly three minute chief minister berate predecessor undignified manner manjhi take part debate remark seem caste census mere paperwork really deserve reservation not get justice statisticsthere provision review reservation quota every ten yearsthe government find whether caste group really get benefit reservation notmerely raise quota cap not donitish kumar explode anger start berate manjhi describe insane senseless manjhis greatness not respond rudely leave house uproar inside house bjp mlas start protest allege cm insult mahadalit leader manjhi later tell reporter not believe nitish kumar know ten year ago feel sad hear use word nitish not ordinary man head state chief minister insult former cm use derogatory language think chief minister lose mental balance need treatmentthe manner nitish kumar lose cool inside assembly shameful undignifie not insult manjhi also speaker house bring bad name chief minister post nitish kumar speak moneylender yore berate poor man low caste not repay loan rule opposition member stun nitishs outburst even speaker minister try cool nitish kumar continue tirade controversy spiral deputy chief minister tejashwi yadav react say chief minister not give antidalit statement present dalit leader insult saidtejashwi say state government take historic step get bill relate increase reservation limit job education pass tejashwi allege bjp want achievement must not reach common people rake unnecessary issue even tejashwi yadav know manner nitish speak highly undignified deputy chief minister defend cm political compulsion defend nitish shameful thing nitishs attitude go againt grain tradition culture democratic dignity violate dignity chair chief minister jitan ram manjhi not mahadalit old nitish kumar age political experience compare nitishthe chief minister respect manjhis age far manjhi make cm concern nitish probably forget manjhi win election nitish manjhi first elect mla make minister nitish kumar first elect mla nitish legislator manjhi work minister manjhi minister three congress government also minister government head lalu prasad rabri devi minister nitishs government never betray leadersadvertisement contrary nitishs entire political career history political betrayal first betray lalu prasad george fernande sharad yadav become cm bjp support palti somersault become cm lalus support make another somersault join bjp camp join lalus camp not nothing tejashwi take jibe name paltu chacha uncle somersault therefore nitish right berate another leader say hungry power positiona far instal manjhi cm concern nitishs political game drama manjhi become pawn nitish want sympathy vote dalit therefore hand cms chair manjhi work sideline become cm nitish kumar political character throughout career lalu prasad record say local lingo nitish even tooth inside belly betray anybody advertisement thing happen politic every time nitish get fresh lease life last two day nitish kumar break limit dignity public humiliation jitan ram manjhi inside assembly clearly indicate nitish lose mental balance insult mahadalit former cm old man leader senior nitish not protect dignity chair lalu prasad yadav instrumental make nitish cm must think nitishs action maybe nitish may say tomorrow make mistake may seek forgiveness faade insult womanhood tuesday go around town apologize fold hand wednesdayon thursday insult senior dalit leader nitish kumar chief minister bihar nearly year last three day cross limit dignity act damage public image action neither good interest bihar lalu prasad rjd nitish lose mental balance not sense hand rein hand derange man dangerous nitish kumar sense use crude language dangerous person not deserve remain chief minister bihar lalu yadav tejashwi yadav must think long carry nitishs burden keep cms chair long allow nitishs government continue political interest</t>
+  </si>
+  <si>
+    <t>israelhamas war thousand palestinians flee northern gaza israels military push deeply dense urban neighbourhood battle hamas militant official besiege enclave say palestinian death toll surpass people search safety gaza grow desperate combat intensifie resident escape south palestinian health official report strike around gaza citys main hospital overnight israel say least one result misfired palestinian rocketthe world health organization friday say gazas hospital long function include pediatric hospital stop operation report israeli strike area hell earth today name northern gaza un humanitarian agency spokesperson jens laerke tell reporter genevamore twothird gazas population million flee home since war begin south crowd shelter dwindle supply food water war enter second monthxd gaza city large urban area territory focus israel campaign crush hamas follow militant group deadly october incursion southern israel set warmore people israel die hamas attack hostage take israel gaza palestinian militantsadvertisement meanwhile world health organization verify attack hospital clinic patient ambulance gaza since hamas incursion israel october well attack health care israelin gaza health system knee situation ground impossible describe directorgeneral dr tedros adhanom ghebreyesus tell emergency meeting youn security councilxd speak report fire outside alshifa rantisi hospital say add palestinian health worker still save life despite directly firing line advertisement</t>
+  </si>
+  <si>
+    <t>veteran telugu actor chandra mohan pass away saturday november breathe last hyderabads apollo hospital treatment heartrelate problem survive wife name jalandhara two daughter soon sad news demise start circulate online several popular south indian celebrity take social medium handle pay last tribute take x formerly twitter rrr fame jr ntr mourn death chandra mohan write sad see untimely death chandramohan garu earn special recognition play different role film many decade deep condolence family may soul rest peace final rite perform monday november advertisement veteran telugu actor mallampalli chandra mohan popularly know chandra mohan cousin veteran filmmaker k viswanath original name chandrasekhara rao mallampalli bear may andhra pradeshs pamidimukkula village krishna district</t>
+  </si>
+  <si>
+    <t>world cup south africa face fresh issue captain temba bavuma opening batter pick hamstring side last group stage match afghanistan friday bavuma early miss two game league stage due illness could doubt semifinal australia play kolkata november likelihood bavuma see limp field protea ask bowl first afghans go field first nine delivery make return four later however see limp field fivewicket win highflye asian side bavuma open injury highlighting fine semifinalsobviously leg sore not know extent go fine semifinal bavuma say protea th win tournament righthande batter state option come ground not want stay team obviously option come think much last groupstage game probably not big bearing term playoffadvertisement</t>
+  </si>
+  <si>
+    <t>external affairs minister jaishankar saturday embark fiveday visit united kingdom aim review various aspect bilateral tie expect preparation british prime minister rishi sunak possible visit india next month figure talk londonexternal affair minister jaishankar official visit united kingdom november ministry external affair mea say india uk grow bilateral partnershipdure visit external affair minister hold discussion counterpart foreign secretary sir james cleverly meet several dignitary say statement mea also refer warm thriving relationship two sidesthe indiauk comprehensive strategic partnership launch along indiauk roadmap seek expand tie range areasadvertisement roadmap commitment partnership deliver country external affair minister visit give new impetus friendly tie two country mea say</t>
+  </si>
+  <si>
+    <t>bangalore metro update bangalore metro rail corporation limit bmrcl today november say introduce mobile qr ticket benefit family group travel together effect november presently mobile qr ticket issue mobile application namma metro paytm whatsapp yatra single passenger journey however base demand bmrcl introduce mobile qr ticket facilitate family group travel together maximum six passenger effect november thursday official saidaccorde official mobile qr ticket carry discount per cent token fare passenger use facility receive one single qr ticket encrypt number passengersadvertisement</t>
+  </si>
+  <si>
+    <t>new delhi lead stock exchange bse report fourfold jump net profit rs crore quarter end september comparison exchange post net profit rs crore yearago period bse say statementthe bourse revenue rise per cent record rs crore julyseptember quarter current financial year fy rs crore yearago period shall continue invest development human resource new product technology infrastructure etc thus pursue longterm growth shareholder deliver mission vibrant bse exchange md ceo sundararaman ramamurthy saidthe exchange average daily turnover equity segment increase rs crore quarter review rs crore three month end september advertisement</t>
+  </si>
+  <si>
+    <t>viral video legendary cricketer ms dhoni delight fan hometown ranchi give autograph bmw car video go viral social medium video significant point dhonis language tone sound native get jharkhand time take decide perfect spot car sign name video share instagram user sumeet kumar bajaj caption post ms dhoni sir delight abhishek brother give autograph bmw seriesin video csk skipper see enter car sit ask fan place sign car fan present number marker pen select dhoni say nahi pehle jagah batao first show place fan show dhoni place ask marker former india cricket captain say mota wala black hi hai na black one black not itafter selection pen dhoni get seat say native tone ab sabse bada problem hai humko set hona sign kaise karethe legendary cricketer explain fan would sign fit well due restraint spaceshowe humility uncountable time towards fan dhoni sign bmwbefore exit car congratulate fan quip get late leavecongratulation ab mai bhaga iske pehle late ho jaye dhoni saidthe post garner like instagram numerous comment collect lakh view faradvertisement user comment car price raise another comment bro golden memory advertisement become world valuable car another wrotethe post also share dhonis fan page x formerly twitter handle name dhonisma user comment kaha mil rahe hai bhai log kab hogi ye mulaqat</t>
+  </si>
+  <si>
+    <t>flipkart diwali sale diwali light celebration flipkart offer big discount smartphone smartwatche headset big diwali sale bank offer great deal exchange offer make good time buy new device without spend much moneyfor gamer seek premium experience today mark final day flipkart big diwali sale not miss chance take advantage offer save money get new device price oneplus g feature mp primary camera hz amole qhd display snapdragon gen processor come robust mah battery w supervooc charge support uninterrupted gaming sessionsprice galaxy ultra g boast prograde camera system mp wideangle camera power snapdragon gen ensure smooth gaming performance advertisement price google pixel pro combine tensor g soc vibrant inch fhd amole display mpmpmp camera setup highquality photo robust mah battery ensure longlaste performancewith mp main camera allday battery life iphone pro max offer great video capability extend usage action mode ensure smooth handheld video make comprehensive device user advertisement</t>
+  </si>
+  <si>
+    <t>karnataka rain india meteorological department imd predict heavy rain today november across karnataka state capital bengaluru also receive heavy rainsthe coastal district dakshina kannada uttara kannada udupi go witness rain thunder lightning</t>
+  </si>
+  <si>
+    <t>amid unprecedented attack gaza israeli defence force french president emmanuel macron visit tel aviv last month say justification bomb baby lady old people war hama speak bbc friday macron condemn terror attack israel reiterate call ceasefire gazaso reason legitimacy urge israel stop macron tell bbc express hope western leader join urgent call pausefurther denounce surprise militant attack tel aviv assert israel full right protect land massacre kill people take hostage least people despite macron urge israeli prime minister benjamin netanyahu hold meeting early day war pledge support refrain attack civilian area gazawe share israel pain share willingness get rid terrorism macron say sideline international peace forum paris french leader say government aid agency humanitarian aid conference paris agree humanitarian pause follow ceasefire way protect gazas civilians time israel reportedadvertisement meanwhile respond macron remark netanyahu say hamas blame civilian casualty result devastating onslaught southern israel last month israel everything refrain harm civilian call leave area fight hamasisis everything prevent leave safe area use human shield netanyahu say statement office</t>
+  </si>
+  <si>
+    <t>delhi high court direct police new delhi municipal council ndmc ensure illegal hawker vendor connaught place friday hear court order authority strictly implement order assert zero tolerance towards unauthorised hawker bench comprise justice mini pushkarna cite nehru market situation arise fire tender could not access building fire break say not happen againwe not vendor every nook corner court say ask authority come protocol deal reentry vendor even removalndmc delhi police shall ensure order court october implement letter spirit orderedthe court hear petition association trader shop owner connaught place area rajiv chowk indira chowkadvertisement petitioner seek direction authority ensure illegal hawking squattingvending activity hawking vend area connaught place connaught circus stop permanently area keep free encroachment illegal hawker vendorssquatter</t>
+  </si>
+  <si>
+    <t>garena free fire max redeem code comprise alphanumeric character open door ingame treasure weapon diamond skin dailyrefreshed code important part upgrade garena free fire max gain popularity ban predecessor indian governmentlaunche garena free fire max quickly gain popularity revamp improved version original game capture gaming communitys attention especially ban previous version india developer consistently update game keep vibrant engage playersonce code redeem player access gold diamond game vault allow purchase new ingame item like rebel academy weapon loot crate revolt weapon loot crate diamond voucher fire head hunt parachute not miss limitedtime opportunity enhance gaming experienceadvertisement</t>
+  </si>
+  <si>
+    <t>eng vs pak england pakistan face th match world cup eden gardens stadium kolkata november see final doubleheader tournament two side play different motive england eye spot champion trophy man green gun improbable task reach semifinal tournament pakistan beat three lion massive margin run pip new zealand net run rate book place semifinal whereas england also need win confirm place champion trophy likelihoodengland currently th place world cup point table point game face competition bangladesh sri lanka netherlands topeight finish criterion champion trophy qualification pakistan top world champion lose man green get knock spot not guarantee england point game place seventh competitor sri lanka point game bangladesh aus vs ban clash netherlands game england qualification scenarioscenario england not lose bigadvertisement england would hope win match stay healthy contention champion trophy qualification however lose would not want go big margin big loss push net run rate team bangladesh sri lanka would gun push three lion top eightscenario bangladesh lose australia advertisement</t>
+  </si>
+  <si>
+    <t>week argument risk fail test appropriate give awful violence israeli armed force rain gaza right point however need make soon rather later also draw move step forward write national interest piece october</t>
+  </si>
+  <si>
+    <t>issue reservation government job educational institute part bihar politic since karpoori thakur push per cent quota backward caste bihar thursday bihar assembly unanimously approve new reservation bill increase quota limit backward class extremely backward caste schedule caste schedule tribe per cent percent chief minister nitish kumar remark let urge centre conduct national census caste need increase reservation</t>
+  </si>
+  <si>
+    <t>bijou resident diva absolute tizz red carpet lewk diwali weekend invite five major bollywood party celeb pooch course nothing wear bijou instagram followingbijouthebeautyis quite prima donna temperament match plus picky fave designer wear officially know bijous naninot sure seven human grandkid feel thisbut</t>
+  </si>
+  <si>
+    <t>first xray mri first round caste census datum bihar establish caste count possible useful second tranche datum establish beyond doubt nationwide caste census essential combat social inequality today india need evidence recently release datum bihar demonstrate caste matter caste continue determinant educational opportunity robust indicator economic status gateway decent employment opportunity</t>
+  </si>
+  <si>
+    <t>yamunanagar death five people toll suspect case poisoning due consumption spurious liquor climb haryana official say friday</t>
+  </si>
+  <si>
+    <t>tehran iranian president ebrahim raisi travel saudi arabia attend organisation islamic cooperation oic summit issue palestine gaza crisis discuss islamic republic news agency irna report</t>
+  </si>
+  <si>
+    <t>united nations child kill average every minute gaza strip world health organization directorgeneral tedros adhanom ghebreyesus tell united nations security council friday warn nowhere one safe</t>
+  </si>
+  <si>
+    <t>ottawa canada say take threat aviation extremely seriously investigate online warning day ban prokhalistani group warn air india passenger travel november</t>
+  </si>
+  <si>
+    <t>diwali illuminate night sky myriad colour bring dark side often go unaddresse alarming increase burn injury doctor even call phenomenon seasonal preventable epidemic</t>
+  </si>
+  <si>
+    <t>understand go india never simple always contradictory narrative one story indian business get increasingly oligopolistic dominant player gain ground sector lead therefore economic concentration</t>
+  </si>
+  <si>
+    <t>one popular quote find many random place small town attribute jawaharlal nehru aaram haram hai not rest easy like many quote falsely attribute apj abdul kalam one nehru become part everyday street literature legendary graffiti artist banksy paint fake quote attribute greek philosopher plato blue door brooklyn theory make sentence seem profound write name dead philosopher end plato</t>
+  </si>
+  <si>
+    <t>bengaluru bjp friday name veteran karnataka leader bs yediyurappas son state unit chief clear signal party continue rely former chief minister rather groom set backup leader</t>
+  </si>
+  <si>
+    <t>guwahati arrest early week derogatory remark temple namghariyas traditional assamese prayer house priest speech congress legislator aftab uddin mollah grant bail thursday congress demand public apology mollah regional political party label action political gimmick rule bjp</t>
+  </si>
+  <si>
+    <t>hyderabad telangana sentiment taunting andhra pradesh leader back bharat rashtra samithi chief k chandrashekar raos kcrs poll campaign diction rule party face stiff fight congress bjp november telangana poll</t>
+  </si>
+  <si>
+    <t>patna day apologise controversial remark birth control bihar chief minister nitish kumar thursday launch tirade state legislative assembly former ally jitan ram manjhi nitish pick lead state janata dal united poor showing lok sabha poll</t>
+  </si>
+  <si>
+    <t>supreme court rule punjab governor role set house order hopefully end impasse governor government states kerala tamil nadu governor also take cue act manner augur well parliamentary democracy instead play fire</t>
+  </si>
+  <si>
+    <t>varanasi nineteenyearold rashmi remind attacker every day walk hostel lecture hall venerable yearold banaras hindu university</t>
+  </si>
+  <si>
+    <t>new delhi take defence cooperation notch high dialogue hold friday india pave way cooperate development infantry combat vehicle</t>
+  </si>
+  <si>
+    <t>new delhi kerala high court order union health ministry furnish november good alternative make affordable breast cancer medication available patient struggle access lifesave drug india</t>
+  </si>
+  <si>
+    <t>analysis finance state first half current year show significant improvement expenditure quality states capital expenditure state grow significant percent period last year growth revenue expenditure modest percent</t>
   </si>
   <si>
     <t>world</t>
@@ -309,34 +422,52 @@
     <t>trending-news</t>
   </si>
   <si>
-    <t>chhattisgarh-assembly-elections-bhupesh-baghel-responds-bjp-demand-nia-probe-worker-killing-congress-naxalites-mohla-manpur-ambagarh-chowki-mp-police-2023-10-24-899370</t>
-  </si>
-  <si>
-    <t>hyderabad-israel-hamas-war-aimim-chief-asaduddin-owaisi-urges-pm-modi-establish-humanitarian-corridor-gaza-ceasefire-palestine-defense-forces-rocket-attacks-2023-10-24-899351</t>
+    <t>ayodhya-deepotsav-2023-diwali-24-lakh-diyas-51-ghats-world-record-uttar-pradesh-govt-earthern-lamp-online-booking-cm-yogi-adityanath-latest-updates-2023-11-11-902266</t>
+  </si>
+  <si>
+    <t>rajasthan-assembly-elections-congress-ram-gopal-bairwa-ashok-tanwar-others-joins-bjp-jaipur-rajyavardhan-singh-rathore-cp-joshi-latest-updates-2023-11-11-902300</t>
+  </si>
+  <si>
+    <t>cricket</t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>cricket</t>
-  </si>
-  <si>
-    <t>maharashtra-former-bjp-mp-nilesh-rane-announces-retirement-from-active-politics-ratnagiri-sindhudurg-constituency-lok-sabha-congress-2023-10-24-899369</t>
-  </si>
-  <si>
-    <t>bollywood</t>
-  </si>
-  <si>
-    <t>higher-studies</t>
-  </si>
-  <si>
-    <t>gujarat-madrasa-teacher-maulana-arrested-for-sodomising-minor-students-junagadh-police-crime-news-latest-updates-2023-10-24-899371</t>
-  </si>
-  <si>
-    <t>madhya-pradesh-assembly-elections-ummeedwar-wahi-par-party-nayi-arch-rivals-switch-sides-badnawar-mp-rajvardhan-singh-dattigaon-congress-2023-10-24-899362</t>
-  </si>
-  <si>
-    <t>avoid-these-5-food-combinations-at-any-cost-2023-10-24-899359</t>
+    <t>regional-cinema</t>
+  </si>
+  <si>
+    <t>bangalore-metro-rail-mobile-qr-tickets-bengaluru-karnataka-commuters-namma-metro-paytm-whatsapp-yatra-latest-updates-2023-11-11-902306</t>
+  </si>
+  <si>
+    <t>karnataka-rains-imd-alert-bengaluru-heavy-showers-waterlogging-massive-traffic-jam-schools-closed-latest-weather-updates-2023-11-11-902296</t>
+  </si>
+  <si>
+    <t>delhi-high-court-orders-no-vending-hawking-zones-in-connaught-place-nehru-place-delhi-police-ndmc-latest-updates-2023-11-11-902293</t>
+  </si>
+  <si>
+    <t>national-interest</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>politics</t>
+  </si>
+  <si>
+    <t>50-word-edit</t>
+  </si>
+  <si>
+    <t>ground-reports</t>
+  </si>
+  <si>
+    <t>diplomacy</t>
+  </si>
+  <si>
+    <t>judiciary</t>
+  </si>
+  <si>
+    <t>macrosutra</t>
   </si>
   <si>
     <t>https://www.indiatoday.in/world/story/israel-hamas-war-un-rights-chief-calls-for-ceasefire-gaza-top-points-2452864-2023-10-24?utm_source=directhp&amp;utm_medium=clicktopstories&amp;utm_campaign=hptopstories</t>
@@ -399,64 +530,121 @@
     <t>https://www.indiatoday.in/trending-news/story/viral-video-shows-pet-dogs-visiting-durga-puja-pandal-in-bengaluru-internet-reacts-2452977-2023-10-24</t>
   </si>
   <si>
-    <t>https://www.indiatvnews.com/chhattisgarh/chhattisgarh-assembly-elections-bhupesh-baghel-responds-bjp-demand-nia-probe-worker-killing-congress-naxalites-mohla-manpur-ambagarh-chowki-mp-police-2023-10-24-899370</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/telangana/hyderabad-israel-hamas-war-aimim-chief-asaduddin-owaisi-urges-pm-modi-establish-humanitarian-corridor-gaza-ceasefire-palestine-defense-forces-rocket-attacks-2023-10-24-899351</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/sri-lanka-approves-visa-free-entry-for-visitors-from-india-china-russia-malaysia-japan-indonesia-thailand-india-sri-lanka-ties-ali-sabry-pm-modi-mea-2023-10-24-899341</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/news/dussehra-2023-katrina-kaif-to-anupam-kher-celebs-extend-special-wishes-to-fans-2023-10-24-899376</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/mumbai-weather-forecast-probable-xis-live-telecast-sa-vs-ban-south-africa-vs-bangladesh-world-cup-2023-2023-10-24-899342</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/maharashtra/maharashtra-former-bjp-mp-nilesh-rane-announces-retirement-from-active-politics-ratnagiri-sindhudurg-constituency-lok-sabha-congress-2023-10-24-899369</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/technology/news/whatsapp-channels-set-to-get-voice-messages-and-stickers-here-what-to-know-2023-10-24-899363</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/rajnath-singh-visits-tawang-arunachal-pradesh-vijaya-dashmi-jawans-observes-chinese-pla-posts-india-china-border-dispute-defence-minister-updates-2023-10-24-899348</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/babar-azam-wants-his-teammates-to-be-proactive-in-field-after-pakistan-s-three-consecutive-world-cup-defeats-2023-10-24-899352</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/five-of-family-die-after-their-car-fell-off-bridge-at-sikatiya-barrage-in-jharkhand-deoghar-2023-10-24-899355</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/bollywood/deva-shahid-kapoor-looks-fierce-in-first-poster-film-to-release-next-dussehra-2023-10-24-899378</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/education/higher-studies/du-placement-and-internship-2023-drive-to-be-conducted-on-october-26-details-here-2023-10-24-899373</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/crime/gujarat-madrasa-teacher-maulana-arrested-for-sodomising-minor-students-junagadh-police-crime-news-latest-updates-2023-10-24-899371</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/india/kerala-cpo-found-hanging-second-suicide-in-police-department-in-month-probe-ordered-2023-10-24-899366</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/sports/cricket/world-cup-2023-australia-optimistic-about-travis-head-s-availability-for-netherlands-game-2023-10-24-899364</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/business/news/ajay-goel-quits-as-byjus-cfo-rejoins-vedanta-business-news-latest-updates-2023-10-24-899365</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/madhya-pradesh/madhya-pradesh-assembly-elections-ummeedwar-wahi-par-party-nayi-arch-rivals-switch-sides-badnawar-mp-rajvardhan-singh-dattigaon-congress-2023-10-24-899362</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/news/world/chinese-foreign-minister-wang-yi-to-visit-us-in-a-bid-to-cool-down-tensions-between-world-s-largest-economies-antony-blinken-joe-biden-xi-jinping-2023-10-24-899361</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/health/avoid-these-5-food-combinations-at-any-cost-2023-10-24-899359</t>
-  </si>
-  <si>
-    <t>https://www.indiatvnews.com/entertainment/news/raj-kundras-old-letter-to-nhrc-surfaces-says-humans-are-treated-worse-than-pigs-in-arthur-road-jail-2023-10-24-899358</t>
+    <t>https://www.indiatvnews.com/uttar-pradesh/ayodhya-deepotsav-2023-diwali-24-lakh-diyas-51-ghats-world-record-uttar-pradesh-govt-earthern-lamp-online-booking-cm-yogi-adityanath-latest-updates-2023-11-11-902266</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/rajasthan/rajasthan-assembly-elections-congress-ram-gopal-bairwa-ashok-tanwar-others-joins-bjp-jaipur-rajyavardhan-singh-rathore-cp-joshi-latest-updates-2023-11-11-902300</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/england-vs-pakistan-world-cup-2023-live-england-look-for-champions-trophy-push-pakistan-aim-for-improbable-semifinal-spot-eng-vs-pak-eden-gardens-2023-11-11-902299</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/news/dhai-kilo-ka-purse-kyu-palak-tiwari-gets-brutally-trolled-for-ignoring-beggar-watch-video-2023-11-11-902297</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/are-pakistan-knocked-out-from-world-cup-2023-at-eng-vs-pak-toss-itself-can-they-qualify-while-chasing-too-2023-11-11-902303</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/india/opinion-lalu-tejashwi-must-think-how-long-will-they-allow-nitish-to-continue-as-cm-aaj-ki-baat-rajat-sharma-blog-post-2023-11-10-902192</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/israel-hamas-war-israeli-massive-airstrikes-leave-20-of-gaza-36-hospitals-dysfunctional-over-11000-killed-in-36-days-who-palestine-idf-netanyahu-us-2023-11-11-902283</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/entertainment/regional-cinema/chandra-mohan-veteran-telugu-actor-dies-at-the-age-of-82-due-to-cardiac-arrest-jr-ntr-among-others-mourns-demise-2023-11-11-902291</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/south-africa-face-temba-bavumas-injury-concern-ahead-of-sa-vs-aus-world-cup-2023-semifinal-sa-vs-afg-south-africa-vs-australia-2023-11-11-902280</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/indian-foreign-minister-s-jaishankar-embarks-on-five-day-visit-to-uk-ahead-of-pm-rishi-sunak-visit-to-india-free-trade-agrrement-pm-modi-2023-11-11-902308</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/karnataka/bangalore-metro-rail-mobile-qr-tickets-bengaluru-karnataka-commuters-namma-metro-paytm-whatsapp-yatra-latest-updates-2023-11-11-902306</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/business/news/bse-q2-net-profit-jumps-to-rs-118-crore-revenue-at-record-rs-367-crore-2023-11-11-902307</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/trending/news/ms-dhoni-signs-fans-bmw-car-viral-video-trending-posts-ranchi-instagram-twitter-csk-skipper-latest-updates-2023-11-11-902305</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/technology/news/flipkart-s-big-diwali-sale-ends-today-check-exclusive-discounts-on-premium-gaming-smartphones-2023-11-11-902304</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/karnataka/karnataka-rains-imd-alert-bengaluru-heavy-showers-waterlogging-massive-traffic-jam-schools-closed-latest-weather-updates-2023-11-11-902296</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/news/world/israel-hamas-french-president-emmanuel-macron-says-no-justification-for-bombing-babies-ladies-old-people-in-gaza-in-war-against-hamas-ceasefire-netany-2023-11-11-902294</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/delhi/delhi-high-court-orders-no-vending-hawking-zones-in-connaught-place-nehru-place-delhi-police-ndmc-latest-updates-2023-11-11-902293</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/technology/news/check-nov-11-garena-free-fire-max-redeem-codes-weapons-diamonds-and-more-2023-11-11-902292</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/sports/cricket/how-can-england-qualify-for-champions-trophy-even-if-they-lose-to-pakistan-in-eng-vs-pak-world-cup-2023-clash-england-vs-pakistan-aus-vs-ban-2023-11-11-902290</t>
+  </si>
+  <si>
+    <t>https://theprint.in/national-interest/nation-bigger-than-200-cr-ummah-muslims-dont-get-it-and-that-makes-them-powerless/1840908/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/newsmaker-of-the-week/bihar-bjp-is-toeing-nitish-kumars-line-on-caste-now-its-a-win-for-jdu-rjd-before-elections/1840929/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/pawdicures-spa-gucci-goodies-celeb-felines-dogs-are-having-their-moment-this-diwali/1841224/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/india-has-gone-into-data-discomfort-explains-silence-on-bihar-caste-inequality/1839572/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/india/death-toll-in-haryanas-spurious-liquor-case-climbs-to-12/1841034/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/world/iranian-president-to-travel-to-saudi-arabia-to-attend-oic-summit-on-gaza-crisis/1841134/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/world/a-child-killed-on-average-every-10-minutes-in-gaza-says-who-chief/1841182/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/world/canadian-authorities-investigating-possible-threat-against-air-india-passengers-on-nov-19/1839975/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/diwali-burns-are-preventable-but-be-prepared-heres-a-guide-to-first-aid-and-after-care/1841000/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/corporate-india-might-be-getting-top-heavy-but-it-is-smaller-firms-that-are-fetching-higher-returns/1840765/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/opinion/indians-have-a-toxic-relationship-with-overwork-culture-they-are-taught-work-is-worship/1839074/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/bjp-names-yediyurappas-son-vijayendra-as-karnataka-party-chief/1840671/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/assam-congress-mla-arrested-for-remarks-on-temple-priests-gets-bail-asked-to-apologise-by-party/1839689/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/kcr-banks-on-his-age-old-strategy-to-take-on-resurgent-congress-in-telangana-the-statehood-sentiment/1838953/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/politics/stupid-of-me-to-make-him-cm-nitish-launches-into-tirade-against-manjhi-in-bihar-assembly/1839271/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/50-word-edit/many-central-agencies-cleared-kaleshwaram-irrigation-project-bjp-cant-wash-its-hands-off-it/1840186/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/ground-reports/in-iit-vs-bhu-war-a-demand-for-a-wall-rises-will-it-stop-sexual-attacks-on-women/1837891/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/diplomacy/22-dialogue-india-us-to-deepen-defence-cooperation-mq9b-drones-stryker-discussed/1840641/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/judiciary/on-dead-patients-plea-hc-asks-centre-for-best-option-to-make-affordable-breast-cancer-meds-available/1839143/</t>
+  </si>
+  <si>
+    <t>https://theprint.in/macrosutra/states-spending-better-with-many-prioritising-capex-but-those-dependent-on-centre-may-face-stress/1838747/</t>
   </si>
   <si>
     <t>International</t>
@@ -483,10 +671,10 @@
     <t>Culture</t>
   </si>
   <si>
+    <t>Business</t>
+  </si>
+  <si>
     <t>Technology</t>
-  </si>
-  <si>
-    <t>Business</t>
   </si>
 </sst>
 </file>
@@ -857,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,16 +1073,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -902,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -919,16 +1107,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -936,16 +1124,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -953,16 +1141,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -970,16 +1158,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -987,16 +1175,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1004,16 +1192,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1021,16 +1209,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1038,16 +1226,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1055,16 +1243,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1072,16 +1260,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1089,16 +1277,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1106,16 +1294,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1123,16 +1311,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1140,16 +1328,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1157,16 +1345,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1174,16 +1362,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1191,16 +1379,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1208,16 +1396,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1225,16 +1413,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1242,16 +1430,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1259,16 +1447,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1276,16 +1464,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1293,16 +1481,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1310,16 +1498,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1327,16 +1515,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1344,16 +1532,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1361,16 +1549,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1378,16 +1566,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1395,16 +1583,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1412,16 +1600,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1429,16 +1617,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1446,16 +1634,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1463,16 +1651,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1480,16 +1668,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1497,16 +1685,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1514,16 +1702,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1531,16 +1719,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1548,16 +1736,339 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
         <v>140</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
         <v>143</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1602,6 +2113,25 @@
     <hyperlink ref="D39" r:id="rId38"/>
     <hyperlink ref="D40" r:id="rId39"/>
     <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/Final_Prepped_Data.xlsx
+++ b/backend/Final_Prepped_Data.xlsx
@@ -505,7 +505,7 @@
     <t>aaradhya bachchan turn year old november bear aishwarya rai abhishek bachchan daughter turn year old two popular bollywood star take social medium dedicate heartfelt post little princess also share childhood photo aaradhya along cute notesadvertisementaishwarya rai tells aaradhya love mostestaishwarya rai often accompany daughter aaradhya whereever go th birthday aishwarya take instagram account post adorable selfie daughter childhood photo aishwarya see wear black outfit smile little aaradhya armsshare photo aishwarya write caption love infinitely unconditionally forever beyond darling angel aaradhya absolute love life breathe soul happy happy happy th birthday god bless always allway thank precious love love mostestestestestestestestestestestest bestestestestestestestestestestestest siccheck abhishek call aaradhya little princessabhishek bachchan also post adorable throwback picture aaradhya instagram account photo baby aaradhya see sit father lap look affectionately picture seem take event abhishek caption read happy birthday little princess love sic check abhishek bachchan aishwarya rai bachchan got marry april first child aaradhya bachchan publish grace cyril publish nov also read aishwarya rai bachchan give iifa miss due aaradhyas school read detailsmust watch aishwarya rai often accompany daughter aaradhya whereever go th birthday aishwarya take instagram account post adorable selfie daughter childhood photo aishwarya see wear black outfit smile little aaradhya armsshare photo aishwarya write caption love infinitely unconditionally forever beyond darling angel aaradhya absolute love life breathe soul happy happy happy th birthday god bless always allway thank precious love love mostestestestestestestestestestestest bestestestestestestestestestestestest siccheck abhishek call aaradhya little princessabhishek bachchan also post adorable throwback picture aaradhya instagram account photo baby aaradhya see sit father lap look affectionately picture seem take event abhishek caption read happy birthday little princess love sic check abhishek bachchan aishwarya rai bachchan got marry april first child aaradhya bachchan publish grace cyril publish nov also read aishwarya rai bachchan give iifa miss due aaradhyas school read detailsmust watch</t>
   </si>
   <si>
-    <t>midst war israel hamas united nations many muslim country include hamas surround israel target gazas hospital stop supply fuel electricity water food contrary israel release video allege fuel send steal hamas terrorist un hamas many muslim country accuse israel target gazas hospital un say israel stop supply fuel electricity water food hospital gaza due lack fuel electricity supply people include newborn child die hospital</t>
+    <t>war israel hamas united nations many muslim country include hamas surround israel target hospital gaza stop supply fuel electricity water food contrary israel release video allege fuel send steal hamas terrorist un hamas many muslim country accuse israel target gazas hospital un say israel stop supply fuel electricity water food hospital gaza due lack fuel electricity supply people include newborn child die hospital</t>
   </si>
   <si>
     <t>team india give big warning team world cup win asia cup indian team lead rohit sharma stake strong claim world cup strong performance besides defend champion england captain jos buttler also alert look sorry</t>
@@ -1417,7 +1417,7 @@
     <t>[0.06677709519863129, 0.10195357352495193, 0.831269383430481]</t>
   </si>
   <si>
-    <t>[0.026875771582126617, 0.40838637948036194, 0.564737856388092]</t>
+    <t>[0.028779996559023857, 0.3982689380645752, 0.5729511380195618]</t>
   </si>
   <si>
     <t>[0.05313512682914734, 0.1961987018585205, 0.7506661415100098]</t>
